--- a/Doc/配置表/配置表/room.xlsx
+++ b/Doc/配置表/配置表/room.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="12735" tabRatio="788"/>
+    <workbookView windowWidth="22200" windowHeight="11085" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="关卡表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">AI测试!$A$1:$F$150</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2098,7 +2098,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>bp_zx_001_03_chengshijinru</t>
+    <t>chengshi_001_changlang</t>
   </si>
   <si>
     <t>v_test</t>
@@ -3600,10 +3600,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -3654,6 +3654,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3661,43 +3674,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3711,24 +3689,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3741,17 +3710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3766,24 +3726,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3804,7 +3750,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3884,7 +3884,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3902,19 +3974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3926,103 +3986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4059,6 +4023,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4113,35 +4113,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4162,21 +4144,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4187,6 +4154,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4210,96 +4186,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4308,37 +4314,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4347,148 +4347,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4497,127 +4497,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4632,7 +4536,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4641,7 +4551,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4653,55 +4617,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4734,22 +4737,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4809,25 +4806,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4836,28 +4866,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4866,73 +4941,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4941,10 +4995,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4953,40 +5025,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4995,319 +5094,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5345,7 +5345,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="176" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="175" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5483,16 +5483,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5523,13 +5523,13 @@
     <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="常规 10 3" xfId="6"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="常规 6 2 2 3 2 3" xfId="9"/>
-    <cellStyle name="常规 6 2 2 2 2 2 2" xfId="10"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="常规 6 2 2 2 4 2" xfId="12"/>
-    <cellStyle name="千位分隔" xfId="13" builtinId="3"/>
-    <cellStyle name="常规 7 3" xfId="14"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="常规 7 3" xfId="9"/>
+    <cellStyle name="差" xfId="10" builtinId="27"/>
+    <cellStyle name="常规 6 2 2 2 4 2" xfId="11"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="12" builtinId="39"/>
+    <cellStyle name="常规 6 2 2 3 2 3" xfId="13"/>
+    <cellStyle name="常规 6 2 2 2 2 2 2" xfId="14"/>
     <cellStyle name="超链接" xfId="15" builtinId="8"/>
     <cellStyle name="常规 7 2 2 2 2 3 2" xfId="16"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="17" builtinId="40"/>
@@ -5537,20 +5537,20 @@
     <cellStyle name="常规 6 2 2 4 2 2 2" xfId="19"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9"/>
     <cellStyle name="常规 6 3 2 2 2 2 2" xfId="21"/>
-    <cellStyle name="百分比 2" xfId="22"/>
-    <cellStyle name="注释" xfId="23" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="24"/>
+    <cellStyle name="注释" xfId="22" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="23"/>
+    <cellStyle name="百分比 2" xfId="24"/>
     <cellStyle name="警告文本" xfId="25" builtinId="11"/>
     <cellStyle name="常规 6 5" xfId="26"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="27" builtinId="36"/>
     <cellStyle name="标题 4" xfId="28" builtinId="19"/>
     <cellStyle name="标题" xfId="29" builtinId="15"/>
     <cellStyle name="常规 5 2" xfId="30"/>
-    <cellStyle name="常规 12" xfId="31"/>
-    <cellStyle name="解释性文本" xfId="32" builtinId="53"/>
-    <cellStyle name="常规 6 3 3 3" xfId="33"/>
-    <cellStyle name="常规 6 2 2 3 3" xfId="34"/>
-    <cellStyle name="百分比 2 2" xfId="35"/>
+    <cellStyle name="解释性文本" xfId="31" builtinId="53"/>
+    <cellStyle name="常规 6 3 3 3" xfId="32"/>
+    <cellStyle name="常规 12" xfId="33"/>
+    <cellStyle name="百分比 2 2" xfId="34"/>
+    <cellStyle name="常规 6 2 2 3 3" xfId="35"/>
     <cellStyle name="标题 1" xfId="36" builtinId="16"/>
     <cellStyle name="标题 2" xfId="37" builtinId="17"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="38" builtinId="32"/>
@@ -5558,8 +5558,8 @@
     <cellStyle name="常规 6 3 2 2" xfId="40"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="41" builtinId="44"/>
     <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="常规 6 2 2 2 2 2" xfId="43"/>
-    <cellStyle name="常规 26" xfId="44"/>
+    <cellStyle name="常规 26" xfId="43"/>
+    <cellStyle name="常规 6 2 2 2 2 2" xfId="44"/>
     <cellStyle name="计算" xfId="45" builtinId="22"/>
     <cellStyle name="常规 6 2 2 2 2 2 3 2" xfId="46"/>
     <cellStyle name="检查单元格" xfId="47" builtinId="23"/>
@@ -5576,8 +5576,8 @@
     <cellStyle name="适中" xfId="58" builtinId="28"/>
     <cellStyle name="常规 8 2" xfId="59"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="60" builtinId="46"/>
-    <cellStyle name="常规 6 2 3 2 2 3" xfId="61"/>
-    <cellStyle name="常规 2 2 2 4" xfId="62"/>
+    <cellStyle name="常规 2 2 2 4" xfId="61"/>
+    <cellStyle name="常规 6 2 3 2 2 3" xfId="62"/>
     <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
     <cellStyle name="常规 6 2 3 3" xfId="64"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="65" builtinId="30"/>
@@ -5595,31 +5595,31 @@
     <cellStyle name="40% - 强调文字颜色 4" xfId="77" builtinId="43"/>
     <cellStyle name="常规 2 2 2 8" xfId="78"/>
     <cellStyle name="强调文字颜色 5" xfId="79" builtinId="45"/>
-    <cellStyle name="常规 6 3 2 3 2 2 2" xfId="80"/>
-    <cellStyle name="常规 6 2 2 2 2 2 4" xfId="81"/>
+    <cellStyle name="常规 6 2 2 2 2 2 4" xfId="80"/>
+    <cellStyle name="常规 6 3 2 3 2 2 2" xfId="81"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
     <cellStyle name="常规 6 3 2 3" xfId="83"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
     <cellStyle name="常规 2 2 2 9" xfId="85"/>
     <cellStyle name="强调文字颜色 6" xfId="86" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="87" builtinId="51"/>
-    <cellStyle name="常规 7 2 2 2 2" xfId="88"/>
-    <cellStyle name="常规 6 3 2 4" xfId="89"/>
+    <cellStyle name="常规 6 3 2 4" xfId="88"/>
+    <cellStyle name="常规 7 2 2 2 2" xfId="89"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="90" builtinId="52"/>
     <cellStyle name="常规 10 5" xfId="91"/>
     <cellStyle name="常规 10" xfId="92"/>
-    <cellStyle name="常规 6 2 4 3" xfId="93"/>
-    <cellStyle name="常规 10 2" xfId="94"/>
+    <cellStyle name="常规 10 2" xfId="93"/>
+    <cellStyle name="常规 6 2 4 3" xfId="94"/>
     <cellStyle name="常规 11 3" xfId="95"/>
-    <cellStyle name="常规 6 2 4 3 2" xfId="96"/>
+    <cellStyle name="常规 10 2 2" xfId="96"/>
     <cellStyle name="常规 2 7" xfId="97"/>
-    <cellStyle name="常规 10 2 2" xfId="98"/>
-    <cellStyle name="常规 9 2 2 2 2" xfId="99"/>
-    <cellStyle name="常规 10 4" xfId="100"/>
+    <cellStyle name="常规 6 2 4 3 2" xfId="98"/>
+    <cellStyle name="常规 10 4" xfId="99"/>
+    <cellStyle name="常规 9 2 2 2 2" xfId="100"/>
     <cellStyle name="常规 11" xfId="101"/>
     <cellStyle name="常规 11 2" xfId="102"/>
-    <cellStyle name="常规 6 2 3 3 2 2" xfId="103"/>
-    <cellStyle name="常规 11 4" xfId="104"/>
+    <cellStyle name="常规 11 4" xfId="103"/>
+    <cellStyle name="常规 6 2 3 3 2 2" xfId="104"/>
     <cellStyle name="常规 12 2" xfId="105"/>
     <cellStyle name="常规 12 3" xfId="106"/>
     <cellStyle name="常规 12 4" xfId="107"/>
@@ -5627,59 +5627,59 @@
     <cellStyle name="常规 13 2" xfId="109"/>
     <cellStyle name="常规 14" xfId="110"/>
     <cellStyle name="常规 14 2" xfId="111"/>
-    <cellStyle name="常规 6 3 2 2 3 2" xfId="112"/>
+    <cellStyle name="常规 15" xfId="112"/>
     <cellStyle name="常规 20" xfId="113"/>
-    <cellStyle name="常规 15" xfId="114"/>
-    <cellStyle name="常规 21" xfId="115"/>
-    <cellStyle name="常规 16" xfId="116"/>
-    <cellStyle name="常规 6 4 2" xfId="117"/>
+    <cellStyle name="常规 6 3 2 2 3 2" xfId="114"/>
+    <cellStyle name="常规 16" xfId="115"/>
+    <cellStyle name="常规 21" xfId="116"/>
+    <cellStyle name="常规 17" xfId="117"/>
     <cellStyle name="常规 22" xfId="118"/>
-    <cellStyle name="常规 17" xfId="119"/>
-    <cellStyle name="常规 6 4 3" xfId="120"/>
+    <cellStyle name="常规 6 4 2" xfId="119"/>
+    <cellStyle name="常规 18" xfId="120"/>
     <cellStyle name="常规 23" xfId="121"/>
-    <cellStyle name="常规 18" xfId="122"/>
-    <cellStyle name="常规 6 4 4" xfId="123"/>
+    <cellStyle name="常规 6 4 3" xfId="122"/>
+    <cellStyle name="常规 19" xfId="123"/>
     <cellStyle name="常规 24" xfId="124"/>
-    <cellStyle name="常规 19" xfId="125"/>
+    <cellStyle name="常规 6 4 4" xfId="125"/>
     <cellStyle name="常规 2" xfId="126"/>
     <cellStyle name="常规 2 10" xfId="127"/>
-    <cellStyle name="常规 6 2 4 2 2" xfId="128"/>
-    <cellStyle name="常规 2 11" xfId="129"/>
-    <cellStyle name="常规 6 2 4 2 3" xfId="130"/>
-    <cellStyle name="常规 2 12" xfId="131"/>
+    <cellStyle name="常规 2 11" xfId="128"/>
+    <cellStyle name="常规 6 2 4 2 2" xfId="129"/>
+    <cellStyle name="常规 2 12" xfId="130"/>
+    <cellStyle name="常规 6 2 4 2 3" xfId="131"/>
     <cellStyle name="常规 2 13" xfId="132"/>
     <cellStyle name="常规 2 14" xfId="133"/>
-    <cellStyle name="常规 7 2 3 2 2 2 2" xfId="134"/>
-    <cellStyle name="常规 6 2 2 2 2 4 2" xfId="135"/>
-    <cellStyle name="常规 2 20" xfId="136"/>
-    <cellStyle name="常规 2 15" xfId="137"/>
-    <cellStyle name="常规 2 21" xfId="138"/>
-    <cellStyle name="常规 2 16" xfId="139"/>
-    <cellStyle name="常规 2 22" xfId="140"/>
-    <cellStyle name="常规 2 17" xfId="141"/>
+    <cellStyle name="常规 2 15" xfId="134"/>
+    <cellStyle name="常规 2 20" xfId="135"/>
+    <cellStyle name="常规 6 2 2 2 2 4 2" xfId="136"/>
+    <cellStyle name="常规 7 2 3 2 2 2 2" xfId="137"/>
+    <cellStyle name="常规 2 16" xfId="138"/>
+    <cellStyle name="常规 2 21" xfId="139"/>
+    <cellStyle name="常规 2 17" xfId="140"/>
+    <cellStyle name="常规 2 22" xfId="141"/>
     <cellStyle name="常规 2 18" xfId="142"/>
-    <cellStyle name="常规 2 22 2" xfId="143"/>
-    <cellStyle name="常规 2 19" xfId="144"/>
+    <cellStyle name="常规 2 19" xfId="143"/>
+    <cellStyle name="常规 2 22 2" xfId="144"/>
     <cellStyle name="常规 2 2" xfId="145"/>
     <cellStyle name="常规 2 2 2" xfId="146"/>
     <cellStyle name="常规 2 2 2 10" xfId="147"/>
     <cellStyle name="常规 2 2 2 11" xfId="148"/>
     <cellStyle name="常规 2 2 2 12" xfId="149"/>
     <cellStyle name="常规 2 2 2 13" xfId="150"/>
-    <cellStyle name="常规 9 2 2 2" xfId="151"/>
-    <cellStyle name="常规 2 2 2 14" xfId="152"/>
-    <cellStyle name="常规 6 2 3 3 2" xfId="153"/>
-    <cellStyle name="常规 2 2 2 15" xfId="154"/>
-    <cellStyle name="常规 6 2 3 3 3" xfId="155"/>
-    <cellStyle name="常规 2 2 2 16" xfId="156"/>
+    <cellStyle name="常规 2 2 2 14" xfId="151"/>
+    <cellStyle name="常规 9 2 2 2" xfId="152"/>
+    <cellStyle name="常规 2 2 2 15" xfId="153"/>
+    <cellStyle name="常规 6 2 3 3 2" xfId="154"/>
+    <cellStyle name="常规 2 2 2 16" xfId="155"/>
+    <cellStyle name="常规 6 2 3 3 3" xfId="156"/>
     <cellStyle name="常规 2 2 2 17" xfId="157"/>
     <cellStyle name="常规 2 2 2 18" xfId="158"/>
     <cellStyle name="常规 2 2 2 2" xfId="159"/>
-    <cellStyle name="常规 6 2 3 2 2 2" xfId="160"/>
-    <cellStyle name="常规 2 2 2 3" xfId="161"/>
+    <cellStyle name="常规 2 2 2 3" xfId="160"/>
+    <cellStyle name="常规 6 2 3 2 2 2" xfId="161"/>
     <cellStyle name="常规 2 2 3" xfId="162"/>
-    <cellStyle name="常规 6 2 2 5 2" xfId="163"/>
-    <cellStyle name="常规 2 2 5" xfId="164"/>
+    <cellStyle name="常规 2 2 5" xfId="163"/>
+    <cellStyle name="常规 6 2 2 5 2" xfId="164"/>
     <cellStyle name="常规 2 2 6" xfId="165"/>
     <cellStyle name="常规 2 2 7" xfId="166"/>
     <cellStyle name="常规 2 2 8" xfId="167"/>
@@ -5690,11 +5690,11 @@
     <cellStyle name="常规 2 6" xfId="172"/>
     <cellStyle name="常规 2 8" xfId="173"/>
     <cellStyle name="常规 2 9" xfId="174"/>
-    <cellStyle name="常规 6 2 2 2 2 2 2 3 2" xfId="175"/>
-    <cellStyle name="常规 25" xfId="176"/>
+    <cellStyle name="常规 25" xfId="175"/>
+    <cellStyle name="常规 6 2 2 2 2 2 2 3 2" xfId="176"/>
     <cellStyle name="常规 25 2" xfId="177"/>
-    <cellStyle name="常规 6 2 2 2 2 3" xfId="178"/>
-    <cellStyle name="常规 27" xfId="179"/>
+    <cellStyle name="常规 27" xfId="178"/>
+    <cellStyle name="常规 6 2 2 2 2 3" xfId="179"/>
     <cellStyle name="常规 3" xfId="180"/>
     <cellStyle name="常规 3 2" xfId="181"/>
     <cellStyle name="常规 3 3" xfId="182"/>
@@ -5706,8 +5706,8 @@
     <cellStyle name="常规 4 3" xfId="188"/>
     <cellStyle name="常规 4 4" xfId="189"/>
     <cellStyle name="常规 4 5" xfId="190"/>
-    <cellStyle name="常规 6 3 3 2 2 2" xfId="191"/>
-    <cellStyle name="常规 4 6" xfId="192"/>
+    <cellStyle name="常规 4 6" xfId="191"/>
+    <cellStyle name="常规 6 3 3 2 2 2" xfId="192"/>
     <cellStyle name="常规 5" xfId="193"/>
     <cellStyle name="常规 5 3" xfId="194"/>
     <cellStyle name="常规 5 4" xfId="195"/>
@@ -5717,13 +5717,13 @@
     <cellStyle name="常规 6 2 2" xfId="199"/>
     <cellStyle name="常规 6 2 2 2" xfId="200"/>
     <cellStyle name="常规 6 2 2 2 2" xfId="201"/>
-    <cellStyle name="常规 6 2 2 3 2 3 2" xfId="202"/>
-    <cellStyle name="常规 6 2 2 2 2 2 2 2" xfId="203"/>
-    <cellStyle name="常规 6 3 5" xfId="204"/>
-    <cellStyle name="常规 6 2 2 2 2 2 2 2 2" xfId="205"/>
+    <cellStyle name="常规 6 2 2 2 2 2 2 2" xfId="202"/>
+    <cellStyle name="常规 6 2 2 3 2 3 2" xfId="203"/>
+    <cellStyle name="常规 6 2 2 2 2 2 2 2 2" xfId="204"/>
+    <cellStyle name="常规 6 3 5" xfId="205"/>
     <cellStyle name="常规 6 2 2 2 2 2 2 2 2 2" xfId="206"/>
-    <cellStyle name="常规 6 2 2 2 3 3" xfId="207"/>
-    <cellStyle name="常规 6 2 2 2 2 2 2 2 2 2 2" xfId="208"/>
+    <cellStyle name="常规 6 2 2 2 2 2 2 2 2 2 2" xfId="207"/>
+    <cellStyle name="常规 6 2 2 2 3 3" xfId="208"/>
     <cellStyle name="常规 6 2 2 2 2 2 2 2 3" xfId="209"/>
     <cellStyle name="常规 6 2 2 2 2 2 2 3" xfId="210"/>
     <cellStyle name="常规 6 2 2 2 2 2 3 2 2" xfId="211"/>
@@ -5731,8 +5731,8 @@
     <cellStyle name="常规 6 2 2 2 2 3 2 2" xfId="213"/>
     <cellStyle name="常规 6 2 2 2 2 3 2 2 2" xfId="214"/>
     <cellStyle name="常规 6 2 2 2 2 3 3" xfId="215"/>
-    <cellStyle name="常规 7 2 3 2 2 2" xfId="216"/>
-    <cellStyle name="常规 6 2 2 2 2 4" xfId="217"/>
+    <cellStyle name="常规 6 2 2 2 2 4" xfId="216"/>
+    <cellStyle name="常规 7 2 3 2 2 2" xfId="217"/>
     <cellStyle name="常规 6 2 2 2 3" xfId="218"/>
     <cellStyle name="常规 6 2 2 2 3 2" xfId="219"/>
     <cellStyle name="常规 6 2 2 2 3 2 2" xfId="220"/>
@@ -5754,26 +5754,26 @@
     <cellStyle name="常规 6 2 2 4" xfId="236"/>
     <cellStyle name="常规 6 2 2 4 2" xfId="237"/>
     <cellStyle name="常规 6 2 2 4 2 2" xfId="238"/>
-    <cellStyle name="常规 8 2 3 2 2" xfId="239"/>
-    <cellStyle name="常规 6 2 2 4 3" xfId="240"/>
+    <cellStyle name="常规 6 2 2 4 3" xfId="239"/>
+    <cellStyle name="常规 8 2 3 2 2" xfId="240"/>
     <cellStyle name="常规 6 2 2 5" xfId="241"/>
     <cellStyle name="常规 6 2 3 2" xfId="242"/>
     <cellStyle name="常规 6 2 3 2 2" xfId="243"/>
     <cellStyle name="常规 6 2 3 2 2 2 2" xfId="244"/>
     <cellStyle name="常规 6 2 3 2 2 2 2 2" xfId="245"/>
-    <cellStyle name="常规 7 2 2 4" xfId="246"/>
-    <cellStyle name="常规 6 2 3 2 2 2 2 2 2" xfId="247"/>
+    <cellStyle name="常规 6 2 3 2 2 2 2 2 2" xfId="246"/>
+    <cellStyle name="常规 7 2 2 4" xfId="247"/>
     <cellStyle name="常规 6 2 3 2 2 2 3" xfId="248"/>
     <cellStyle name="常规 6 2 3 2 2 3 2" xfId="249"/>
     <cellStyle name="常规 6 2 3 2 3" xfId="250"/>
     <cellStyle name="常规 6 2 3 2 3 2" xfId="251"/>
-    <cellStyle name="常规 7 2 2 2 2 2 3" xfId="252"/>
-    <cellStyle name="常规 6 2 3 2 3 2 2" xfId="253"/>
+    <cellStyle name="常规 6 2 3 2 3 2 2" xfId="252"/>
+    <cellStyle name="常规 7 2 2 2 2 2 3" xfId="253"/>
     <cellStyle name="常规 6 2 3 2 4" xfId="254"/>
     <cellStyle name="常规 6 2 3 3 2 2 2" xfId="255"/>
     <cellStyle name="常规 6 2 3 4 2" xfId="256"/>
-    <cellStyle name="常规 7 2 2 3 2 2 2" xfId="257"/>
-    <cellStyle name="常规 6 2 4" xfId="258"/>
+    <cellStyle name="常规 6 2 4" xfId="257"/>
+    <cellStyle name="常规 7 2 2 3 2 2 2" xfId="258"/>
     <cellStyle name="常规 6 2 4 2" xfId="259"/>
     <cellStyle name="常规 6 2 4 2 2 2" xfId="260"/>
     <cellStyle name="常规 6 2 4 2 2 2 2" xfId="261"/>
@@ -5785,10 +5785,10 @@
     <cellStyle name="常规 6 3 2" xfId="267"/>
     <cellStyle name="常规 6 3 2 2 2" xfId="268"/>
     <cellStyle name="常规 6 3 2 2 2 2" xfId="269"/>
-    <cellStyle name="常规 6 3 4" xfId="270"/>
-    <cellStyle name="常规 6 3 2 2 2 2 2 2" xfId="271"/>
-    <cellStyle name="常规 6 3 4 2" xfId="272"/>
-    <cellStyle name="常规 6 3 2 2 2 2 2 2 2" xfId="273"/>
+    <cellStyle name="常规 6 3 2 2 2 2 2 2" xfId="270"/>
+    <cellStyle name="常规 6 3 4" xfId="271"/>
+    <cellStyle name="常规 6 3 2 2 2 2 2 2 2" xfId="272"/>
+    <cellStyle name="常规 6 3 4 2" xfId="273"/>
     <cellStyle name="常规 6 3 2 2 2 2 3" xfId="274"/>
     <cellStyle name="常规 6 3 2 2 2 3 2" xfId="275"/>
     <cellStyle name="常规 6 3 2 2 3" xfId="276"/>
@@ -5797,13 +5797,13 @@
     <cellStyle name="常规 6 3 2 3 2" xfId="279"/>
     <cellStyle name="常规 6 3 2 3 2 2" xfId="280"/>
     <cellStyle name="常规 6 3 2 3 3" xfId="281"/>
-    <cellStyle name="常规 7 2 2 2 2 2" xfId="282"/>
-    <cellStyle name="常规 6 3 2 4 2" xfId="283"/>
+    <cellStyle name="常规 6 3 2 4 2" xfId="282"/>
+    <cellStyle name="常规 7 2 2 2 2 2" xfId="283"/>
     <cellStyle name="常规 6 3 3" xfId="284"/>
     <cellStyle name="常规 6 3 3 2" xfId="285"/>
     <cellStyle name="常规 6 3 3 2 2" xfId="286"/>
-    <cellStyle name="常规 8 4" xfId="287"/>
-    <cellStyle name="常规 6 3 3 2 2 2 2" xfId="288"/>
+    <cellStyle name="常规 6 3 3 2 2 2 2" xfId="287"/>
+    <cellStyle name="常规 8 4" xfId="288"/>
     <cellStyle name="常规 6 3 3 2 3" xfId="289"/>
     <cellStyle name="常规 6 3 3 3 2" xfId="290"/>
     <cellStyle name="常规 6 3 4 2 2" xfId="291"/>
@@ -5812,8 +5812,8 @@
     <cellStyle name="常规 6 4 2 2 2" xfId="294"/>
     <cellStyle name="常规 6 4 2 2 2 2" xfId="295"/>
     <cellStyle name="常规 6 4 2 2 2 2 2" xfId="296"/>
-    <cellStyle name="常规 7 2 2 4 2" xfId="297"/>
-    <cellStyle name="常规 6 4 2 2 3" xfId="298"/>
+    <cellStyle name="常规 6 4 2 2 3" xfId="297"/>
+    <cellStyle name="常规 7 2 2 4 2" xfId="298"/>
     <cellStyle name="常规 6 4 2 3" xfId="299"/>
     <cellStyle name="常规 6 4 2 3 2" xfId="300"/>
     <cellStyle name="常规 6 4 3 2" xfId="301"/>
@@ -5824,10 +5824,10 @@
     <cellStyle name="常规 6 5 3" xfId="306"/>
     <cellStyle name="常规 6 6" xfId="307"/>
     <cellStyle name="常规 6 6 2" xfId="308"/>
-    <cellStyle name="常规 9 2 2" xfId="309"/>
-    <cellStyle name="常规 6 7" xfId="310"/>
-    <cellStyle name="常规 9 2 3" xfId="311"/>
-    <cellStyle name="常规 6 8" xfId="312"/>
+    <cellStyle name="常规 6 7" xfId="309"/>
+    <cellStyle name="常规 9 2 2" xfId="310"/>
+    <cellStyle name="常规 6 8" xfId="311"/>
+    <cellStyle name="常规 9 2 3" xfId="312"/>
     <cellStyle name="常规 6 9" xfId="313"/>
     <cellStyle name="常规 7" xfId="314"/>
     <cellStyle name="常规 7 2" xfId="315"/>
@@ -5839,8 +5839,8 @@
     <cellStyle name="常规 7 2 2 2 2 3" xfId="321"/>
     <cellStyle name="常规 7 2 2 2 3" xfId="322"/>
     <cellStyle name="常规 7 2 2 2 3 2" xfId="323"/>
-    <cellStyle name="常规 7 5" xfId="324"/>
-    <cellStyle name="常规 7 2 2 2 3 2 2" xfId="325"/>
+    <cellStyle name="常规 7 2 2 2 3 2 2" xfId="324"/>
+    <cellStyle name="常规 7 5" xfId="325"/>
     <cellStyle name="常规 7 2 2 2 4" xfId="326"/>
     <cellStyle name="常规 7 2 2 3" xfId="327"/>
     <cellStyle name="常规 7 2 2 3 2" xfId="328"/>
@@ -6230,11 +6230,11 @@
   <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
